--- a/Data_analysis/직장인을_위한_실무_엑셀/Chapter01/Section03/엑셀단어포함된셀에서식설정(준비).xlsx
+++ b/Data_analysis/직장인을_위한_실무_엑셀/Chapter01/Section03/엑셀단어포함된셀에서식설정(준비).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part1\Section03\03_Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을_위한_실무_엑셀/Chapter01/Section03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E83858-912A-4AD9-A94D-8D4DD741B08C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B616A442-7B2E-F049-8AAE-CAF4356DD44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{681B7967-C2C0-44B3-8DF5-107356CBE1E7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{681B7967-C2C0-44B3-8DF5-107356CBE1E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Visio 2003을 이용한 비즈니스 다이어그램 작성</t>
-  </si>
-  <si>
     <t>예제로 배우는 엑셀 실무 활용 팁 2</t>
   </si>
   <si>
@@ -89,6 +86,10 @@
   </si>
   <si>
     <t>업무 효율성 향상을 위한 엑셀 실무 함수 1</t>
+  </si>
+  <si>
+    <t>엑셀 2003을 이용한 비즈니스 다이어그램 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -96,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -202,41 +203,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -548,169 +557,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677A46EE-487D-4067-89DE-5FE55C06D22E}">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="26.25" customHeight="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="2:3" ht="14" customHeight="1">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:3" ht="19.5" customHeight="1">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="4">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
-        <v>25400</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4">
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
-        <v>15700</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="4">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="4">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="4">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="4">
+        <v>8870</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
-        <v>8870</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="4">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
         <v>15000</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6">
-        <v>9100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6">
+    <row r="15" spans="2:3">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
         <v>4500</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="4">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="4">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="4">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>20000</v>
       </c>
     </row>
@@ -719,6 +727,11 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B4:B20">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="엑셀">
+      <formula>NOT(ISERROR(SEARCH("엑셀",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
